--- a/data/trans_dic/P70B_R_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R_2023-Dificultad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8654929949553932</v>
+        <v>0.8654929949553933</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8127024093041493</v>
+        <v>0.8127024093041492</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8395896742695018</v>
+        <v>0.8395896742695022</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7980707754142111</v>
+        <v>0.8044950792444264</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7570542013008857</v>
+        <v>0.7541366344374612</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7977730053047301</v>
+        <v>0.7948878051986945</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.913093048334996</v>
+        <v>0.9156824450692446</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8629296107491752</v>
+        <v>0.8665742662196549</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8789439209737674</v>
+        <v>0.8767104623006508</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.8037422652026489</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7981833870125944</v>
+        <v>0.7981833870125946</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7476377980772353</v>
+        <v>0.7464377832347963</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7647589403624866</v>
+        <v>0.7642170034972487</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7680068519499349</v>
+        <v>0.7664989399200004</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.833098927236521</v>
+        <v>0.8342691483909986</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8412596095942861</v>
+        <v>0.8419911238164263</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8264955579079114</v>
+        <v>0.8256911251292987</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.8638433702648304</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8724049117870769</v>
+        <v>0.8724049117870768</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8675903856142437</v>
+        <v>0.8675903856142438</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8299603456436841</v>
+        <v>0.8292528282875992</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8441786998171804</v>
+        <v>0.8419078294133199</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8464465000047519</v>
+        <v>0.846295415039189</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8927381897783611</v>
+        <v>0.8911399463302389</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8957218409620773</v>
+        <v>0.8987644802392342</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8857401508640402</v>
+        <v>0.8879097482231053</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8897147901248116</v>
+        <v>0.8897147901248118</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8888278980862814</v>
+        <v>0.8888278980862813</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8893234685431376</v>
+        <v>0.8893234685431373</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8562659466126491</v>
+        <v>0.8539642679278695</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8593781869922272</v>
+        <v>0.8587467617205746</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8678039329766087</v>
+        <v>0.8667809864447679</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9180844805426329</v>
+        <v>0.9174247038708272</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9139661879966617</v>
+        <v>0.9137612360881137</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9095929998364617</v>
+        <v>0.9081222185493799</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.8534961535082479</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.8541179620691054</v>
+        <v>0.8541179620691055</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.8537687180299903</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8342365687067705</v>
+        <v>0.8343506210940684</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.837267206561736</v>
+        <v>0.8384451105532265</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8397502244020836</v>
+        <v>0.8403438508872143</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.87282119526647</v>
+        <v>0.8717679606832957</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8711567679795306</v>
+        <v>0.8709079549177807</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8661966710209137</v>
+        <v>0.8663750414729956</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>140650</v>
+        <v>141782</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>128538</v>
+        <v>128043</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>276049</v>
+        <v>275050</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>160921</v>
+        <v>161377</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>146514</v>
+        <v>147133</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>304136</v>
+        <v>303363</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>378376</v>
+        <v>377769</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>274286</v>
+        <v>274092</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>664137</v>
+        <v>662833</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>421628</v>
+        <v>422220</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>301724</v>
+        <v>301986</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>714715</v>
+        <v>714020</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>519421</v>
+        <v>518978</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>411177</v>
+        <v>410071</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>942020</v>
+        <v>941851</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>558709</v>
+        <v>557709</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>436282</v>
+        <v>437764</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>985750</v>
+        <v>988165</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>505867</v>
+        <v>504508</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>400904</v>
+        <v>400610</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>917520</v>
+        <v>916438</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>542389</v>
+        <v>541999</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>426370</v>
+        <v>426274</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>961703</v>
+        <v>960148</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1584177</v>
+        <v>1584393</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1240849</v>
+        <v>1242595</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2839176</v>
+        <v>2841183</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1657447</v>
+        <v>1655447</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1291074</v>
+        <v>1290706</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2928591</v>
+        <v>2929194</v>
       </c>
     </row>
     <row r="24">
